--- a/c3/vkap/nexus/assets/doc/universities_upload_sheets.xlsx
+++ b/c3/vkap/nexus/assets/doc/universities_upload_sheets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="UNIVERSITIES" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>University Id</t>
   </si>
@@ -168,6 +168,15 @@
   </si>
   <si>
     <t>C02</t>
+  </si>
+  <si>
+    <t>Intake</t>
+  </si>
+  <si>
+    <t>April-May</t>
+  </si>
+  <si>
+    <t>September-November</t>
   </si>
 </sst>
 </file>
@@ -512,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -540,9 +549,10 @@
     <col min="18" max="18" width="13.42578125" customWidth="1"/>
     <col min="19" max="19" width="15.42578125" customWidth="1"/>
     <col min="20" max="20" width="11.7109375" customWidth="1"/>
+    <col min="23" max="23" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -609,8 +619,11 @@
       <c r="V1" t="s">
         <v>20</v>
       </c>
+      <c r="W1" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -677,8 +690,11 @@
       <c r="V2">
         <v>10</v>
       </c>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -744,6 +760,9 @@
       </c>
       <c r="V3">
         <v>9</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
